--- a/users.xlsx
+++ b/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,24 @@
   </si>
   <si>
     <t>2023-06-15</t>
+  </si>
+  <si>
+    <t>Tursunboy Egamberdiyev</t>
+  </si>
+  <si>
+    <t>+998333323334</t>
+  </si>
+  <si>
+    <t>2023-06-16</t>
+  </si>
+  <si>
+    <t>Азизбек Қодиров</t>
+  </si>
+  <si>
+    <t>+998979976607</t>
+  </si>
+  <si>
+    <t>2023-06-17</t>
   </si>
 </sst>
 </file>
@@ -372,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,6 +438,34 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>484159971</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>721550081</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -28,37 +28,109 @@
     <t>Joined Date</t>
   </si>
   <si>
+    <t>Tursunboy Egamberdiyev</t>
+  </si>
+  <si>
+    <t>+998333323334</t>
+  </si>
+  <si>
+    <t>2023-06-16</t>
+  </si>
+  <si>
+    <t>Азизбек Қодиров</t>
+  </si>
+  <si>
+    <t>+998979976607</t>
+  </si>
+  <si>
+    <t>2023-06-17</t>
+  </si>
+  <si>
+    <t>Erkinov Nodirbek</t>
+  </si>
+  <si>
+    <t>998905250094</t>
+  </si>
+  <si>
+    <t>2023-06-22</t>
+  </si>
+  <si>
+    <t>Исмоилов Мухаммаджон</t>
+  </si>
+  <si>
+    <t>998932562695</t>
+  </si>
+  <si>
+    <t>Ибрагимов Р</t>
+  </si>
+  <si>
+    <t>998944372622</t>
+  </si>
+  <si>
+    <t>2023-06-23</t>
+  </si>
+  <si>
+    <t>Мамажонов Абдуносир</t>
+  </si>
+  <si>
+    <t>+998932141299</t>
+  </si>
+  <si>
+    <t>Boburbek Xojamqulov</t>
+  </si>
+  <si>
+    <t>998933361182</t>
+  </si>
+  <si>
+    <t>Азизбек Кодиров</t>
+  </si>
+  <si>
+    <t>998934167701</t>
+  </si>
+  <si>
+    <t>2023-06-26</t>
+  </si>
+  <si>
+    <t>b g</t>
+  </si>
+  <si>
+    <t>+998943895677</t>
+  </si>
+  <si>
+    <t>2023-06-29</t>
+  </si>
+  <si>
+    <t>Эсонов Равшанбек</t>
+  </si>
+  <si>
+    <t>79665045519</t>
+  </si>
+  <si>
+    <t>Salohiddin Xasanov</t>
+  </si>
+  <si>
+    <t>998936996598</t>
+  </si>
+  <si>
+    <t>Муратхонова Шохида</t>
+  </si>
+  <si>
+    <t>998907631996</t>
+  </si>
+  <si>
+    <t>Шахноза Тургунова</t>
+  </si>
+  <si>
+    <t>998905294755</t>
+  </si>
+  <si>
     <t>Azizbek Qodirov</t>
   </si>
   <si>
     <t>+998940031129</t>
   </si>
   <si>
-    <t>2023-06-14</t>
-  </si>
-  <si>
-    <t>84925857376</t>
-  </si>
-  <si>
-    <t>2023-06-15</t>
-  </si>
-  <si>
-    <t>Tursunboy Egamberdiyev</t>
-  </si>
-  <si>
-    <t>+998333323334</t>
-  </si>
-  <si>
-    <t>2023-06-16</t>
-  </si>
-  <si>
-    <t>Азизбек Қодиров</t>
-  </si>
-  <si>
-    <t>+998979976607</t>
-  </si>
-  <si>
-    <t>2023-06-17</t>
+    <t>2023-06-30</t>
   </si>
 </sst>
 </file>
@@ -390,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,7 +484,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1856563190</v>
+        <v>484159971</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -426,44 +498,184 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>5400714059</v>
+        <v>721550081</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>484159971</v>
+        <v>559228389</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>721550081</v>
+        <v>327314895</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>520560045</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6092697640</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1512796005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>485116905</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>5841656536</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>6134656347</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1933542476</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1940922454</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>440630352</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1856563190</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
